--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="35">
   <si>
     <t>ds</t>
   </si>
@@ -150,14 +150,18 @@
     <t>Yucho</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>引出</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -744,7 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -802,7 +806,7 @@
     <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="通貨 2" xfId="42"/>
+    <cellStyle name="通貨 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
@@ -1116,11 +1120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E342"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="E342" sqref="E342:E344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7149,6 +7153,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A343" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B343" s="1">
+        <f>B342+C343</f>
+        <v>1062296</v>
+      </c>
+      <c r="C343" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="D343" t="s">
+        <v>34</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A344" s="2">
+        <v>43092</v>
+      </c>
+      <c r="B344" s="1">
+        <f>B343+C344</f>
+        <v>1052296</v>
+      </c>
+      <c r="C344" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="D344" t="s">
+        <v>25</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
